--- a/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
+++ b/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1356" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Всего</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Итоги анализа Расходов</t>
   </si>
   <si>
-    <t>Предприятие</t>
-  </si>
-  <si>
     <t>Развернутый анализ расходов</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Контрагент</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;pname}</t>
-  </si>
-  <si>
     <t>{$v-&gt;rows[]-&gt;acc_debit_code}</t>
   </si>
   <si>
@@ -70,19 +64,31 @@
     <t>{$v-&gt;totals[]-&gt;acc_debit_code}</t>
   </si>
   <si>
-    <t>{$v-&gt;totals[]-&gt;acc_name}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;totals[]-&gt;aname}</t>
-  </si>
-  <si>
     <t>{$v-&gt;total_amount}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;company_name}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;expense_label}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;trans_name}</t>
+  </si>
+  <si>
+    <t>Проводка</t>
+  </si>
+  <si>
+    <t>{$v-&gt;totals[]-&gt;trans_name}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;totals[]-&gt;expense_label}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -468,10 +474,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -487,9 +496,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -527,7 +536,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,23 +571,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -614,26 +606,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -807,145 +782,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="61.625" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="61.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="19" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="11" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="13" t="s">
-        <v>20</v>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>2</v>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
+++ b/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="1350" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>{$v-&gt;rows[]-&gt;company_name}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;expense_label}</t>
-  </si>
-  <si>
     <t>{$v-&gt;rows[]-&gt;trans_name}</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>{$v-&gt;totals[]-&gt;expense_label}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;label}</t>
   </si>
 </sst>
 </file>
@@ -435,6 +435,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,9 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -538,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,35 +785,35 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.21875" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="61.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="61.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D2" s="19" t="s">
+    <row r="1" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="25" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
@@ -824,57 +824,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="22" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="28"/>
+    <row r="5" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="29"/>
       <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+    <row r="7" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>20</v>
+      <c r="C9" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>6</v>
@@ -892,12 +892,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>17</v>
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>

--- a/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
+++ b/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Всего</t>
   </si>
@@ -58,12 +58,6 @@
     <t>{$v-&gt;rows[]-&gt;trans_date}</t>
   </si>
   <si>
-    <t>Название счета</t>
-  </si>
-  <si>
-    <t>{$v-&gt;totals[]-&gt;acc_debit_code}</t>
-  </si>
-  <si>
     <t>{$v-&gt;total_amount}</t>
   </si>
   <si>
@@ -83,6 +77,9 @@
   </si>
   <si>
     <t>{$v-&gt;rows[]-&gt;label}</t>
+  </si>
+  <si>
+    <t>Проводки</t>
   </si>
 </sst>
 </file>
@@ -166,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -291,7 +288,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -303,40 +300,60 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -349,39 +366,30 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -394,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -405,9 +413,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -423,9 +428,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -435,17 +437,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,28 +458,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -801,56 +811,52 @@
   <sheetData>
     <row r="1" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="E3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="13" t="s">
-        <v>16</v>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -859,27 +865,27 @@
     </row>
     <row r="7" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -888,27 +894,27 @@
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -929,8 +935,8 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
+++ b/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Всего</t>
   </si>
@@ -73,13 +73,25 @@
     <t>{$v-&gt;totals[]-&gt;trans_name}</t>
   </si>
   <si>
-    <t>{$v-&gt;totals[]-&gt;expense_label}</t>
-  </si>
-  <si>
     <t>{$v-&gt;rows[]-&gt;label}</t>
   </si>
   <si>
     <t>Проводки</t>
+  </si>
+  <si>
+    <t>Всего другое</t>
+  </si>
+  <si>
+    <t>Всего по статьям</t>
+  </si>
+  <si>
+    <t>{$v-&gt;unlabeled_amount}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;labeled_amount}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;totals[]-&gt;label}</t>
   </si>
 </sst>
 </file>
@@ -137,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -402,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -440,6 +458,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,23 +487,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -484,8 +505,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -792,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,131 +841,153 @@
   <sheetData>
     <row r="1" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
+    <row r="13" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B10:H10"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
+++ b/application/plugins/Reports_summary_expense/views/Reports_summary_expense.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2472" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Всего</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>{$v-&gt;totals[]-&gt;label}</t>
+  </si>
+  <si>
+    <t>НДС</t>
+  </si>
+  <si>
+    <t>{$v-&gt;total_amount_vatless}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;unlabeled_amount_vatless}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;labeled_amount_vatless}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;totals[]-&gt;vatless_sum}</t>
+  </si>
+  <si>
+    <t>Без НДС</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;vat}</t>
   </si>
 </sst>
 </file>
@@ -181,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -277,13 +298,135 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -294,125 +437,41 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -420,102 +479,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,7 +687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,165 +896,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="61.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="59.88671875" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="23" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="19" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
         <v>2</v>
       </c>
+      <c r="I3" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="32" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="20" t="s">
         <v>14</v>
       </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="10"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="31" t="s">
         <v>23</v>
       </c>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="10"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="31" t="s">
         <v>24</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="18" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="5" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="26" t="s">
         <v>9</v>
       </c>
+      <c r="I7" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>2</v>
       </c>
+      <c r="I11" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="I12" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
